--- a/Task1/hw.xlsx
+++ b/Task1/hw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Desktop\IT\GIT\Attido\Attido_hw\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4087FF3-583F-4F04-97F9-8CA75CAB971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F835F2-99E2-4D2F-BC3B-3ADE5B01E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A4A0A58-2F13-4AA7-92AD-6DDAD345247F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB6B8EFE-0137-4026-85A9-AEA73066538E}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB6B8EFE-0137-4026-85A9-AEA73066538E}" name="Order_lines" displayName="Order_lines" ref="A1:E6" totalsRowShown="0">
   <autoFilter ref="A1:E6" xr:uid="{BB6B8EFE-0137-4026-85A9-AEA73066538E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{89A5ECB7-E902-4A59-83F8-385CC90F1FF2}" name="ID"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7727051B-044F-47BE-8A4D-2681E732C148}" name="Table2" displayName="Table2" ref="A9:D11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7727051B-044F-47BE-8A4D-2681E732C148}" name="Orders" displayName="Orders" ref="A9:D11" totalsRowShown="0">
   <autoFilter ref="A9:D11" xr:uid="{7727051B-044F-47BE-8A4D-2681E732C148}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD41668F-A52F-4FF9-B658-202E4BD4E513}" name="ID"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B484E05F-C023-47D4-9C46-CE63A18EA90A}" name="Table3" displayName="Table3" ref="A14:D17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B484E05F-C023-47D4-9C46-CE63A18EA90A}" name="Items" displayName="Items" ref="A14:D17" totalsRowShown="0">
   <autoFilter ref="A14:D17" xr:uid="{B484E05F-C023-47D4-9C46-CE63A18EA90A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC240070-F435-448C-8F61-1D0494D452F1}" name="ID"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC439B8-D420-4FF9-94A8-E73BAE8B461F}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,42 +661,18 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
@@ -713,7 +689,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
